--- a/ixigo/target/test-classes/ExcelData/Search_input.xlsx
+++ b/ixigo/target/test-classes/ExcelData/Search_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sidda-chitti_sidda-chitti_capgemini_com/Documents/Desktop/excelsheets/Ixigo_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048BA411A4AC05ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1672FEAD-9F0E-423D-94A9-3EBD2E28FFD3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC1048BA411A4AC05ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25234D8-779D-411F-AF18-5FD43706A66D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,17 +26,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Kakinada</t>
   </si>
+  <si>
+    <t>Goa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -70,7 +73,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,10 +89,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,7 +357,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -371,11 +370,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>45976</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45983</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
